--- a/excel_source/table_menu.xlsx
+++ b/excel_source/table_menu.xlsx
@@ -581,11 +581,11 @@
   <dimension ref="A1:AJ86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y29" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="AG52" activeCellId="0" sqref="AG52"/>
+      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="AE52" activeCellId="0" sqref="AE52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4362,6 +4362,9 @@
       <c r="AD52" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="AE52" s="1" t="n">
+        <v>1600</v>
+      </c>
       <c r="AF52" s="4" t="n">
         <v>73</v>
       </c>
@@ -4445,6 +4448,9 @@
       </c>
       <c r="AD53" s="1" t="s">
         <v>75</v>
+      </c>
+      <c r="AE53" s="1" t="n">
+        <v>1600</v>
       </c>
       <c r="AF53" s="4" t="n">
         <v>103</v>

--- a/excel_source/table_menu.xlsx
+++ b/excel_source/table_menu.xlsx
@@ -581,11 +581,11 @@
   <dimension ref="A1:AJ86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-      <selection pane="bottomRight" activeCell="AE52" activeCellId="0" sqref="AE52"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3327,6 +3327,9 @@
       <c r="V37" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="W37" s="1" t="n">
+        <v>1600</v>
+      </c>
       <c r="Y37" s="1" t="n">
         <v>2500</v>
       </c>
@@ -3919,6 +3922,9 @@
         <v>0</v>
       </c>
       <c r="R46" s="1" t="n">
+        <v>2100</v>
+      </c>
+      <c r="W46" s="1" t="n">
         <v>1600</v>
       </c>
       <c r="AF46" s="4" t="n">
